--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T13:55:37-05:00</t>
+    <t>2021-09-09T10:21:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-09T10:21:32-05:00</t>
+    <t>2021-09-14T11:10:08-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T11:10:08-05:00</t>
+    <t>2022-02-09T10:24:17-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-09T10:24:17-06:00</t>
+    <t>2022-03-31T08:23:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T08:23:07-05:00</t>
+    <t>2022-03-31T11:13:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T11:13:43-05:00</t>
+    <t>2022-04-11T07:37:02-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T07:37:02-05:00</t>
+    <t>2022-04-11T08:49:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T08:49:59-05:00</t>
+    <t>2022-04-14T15:14:34-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T15:14:34-05:00</t>
+    <t>2022-04-15T08:37:28-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T08:37:28-05:00</t>
+    <t>2022-04-15T09:43:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -54,15 +54,21 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T09:43:59-05:00</t>
+    <t>2022-10-17T15:29:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
+    <t>John Moehrke (himself)</t>
+  </si>
+  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -72,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>United States of America</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -248,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -310,28 +316,32 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -354,20 +364,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -389,42 +407,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T15:29:01-05:00</t>
+    <t>2022-10-19T16:12:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-19T16:12:15-05:00</t>
+    <t>2022-10-20T14:08:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-20T14:08:50-05:00</t>
+    <t>2022-10-25T15:39:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T15:39:47-05:00</t>
+    <t>2022-10-28T12:50:39-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-28T12:50:39-05:00</t>
+    <t>2022-11-17T12:54:43-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T12:54:43-06:00</t>
+    <t>2022-11-23T09:43:25-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T09:43:25-06:00</t>
+    <t>2022-12-23T11:36:27-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T11:36:27-06:00</t>
+    <t>2023-01-10T10:51:33-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T10:51:33-06:00</t>
+    <t>2023-02-16T09:21:54-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:21:54-06:00</t>
+    <t>2023-12-06T12:46:33-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -242,10 +242,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-06T12:46:33-06:00</t>
+    <t>2023-12-07T16:35:29-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-mhv-body-temperatures.xlsx
+++ b/docs/ValueSet-mhv-body-temperatures.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T16:35:29-06:00</t>
+    <t>2023-12-07T18:51:33-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
